--- a/Container/Data/DoTEffects.xlsx
+++ b/Container/Data/DoTEffects.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A73BE27-E553-4750-8CA7-3A76594A23A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022E929-EB86-4D16-915C-D75C2933C1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Brennen" sheetId="2" r:id="rId2"/>
+    <sheet name="DotWirkweise" sheetId="5" r:id="rId1"/>
+    <sheet name="Gift" sheetId="4" r:id="rId2"/>
+    <sheet name="Brennen" sheetId="2" r:id="rId3"/>
+    <sheet name="Bluten" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Brennen</t>
   </si>
@@ -52,50 +54,62 @@
     <t>Tier 6</t>
   </si>
   <si>
-    <t>Gift</t>
-  </si>
-  <si>
-    <t>Bluten</t>
-  </si>
-  <si>
     <t>Wirkweise</t>
   </si>
   <si>
     <t>Schaden</t>
   </si>
   <si>
-    <t>Leichte Verbrennung</t>
-  </si>
-  <si>
-    <t>Mittlere Verbrennung</t>
-  </si>
-  <si>
-    <t>Schwerer Ölbrand</t>
-  </si>
-  <si>
-    <t>Lindwurmfeuer</t>
-  </si>
-  <si>
-    <t>Drachenfeuer</t>
-  </si>
-  <si>
-    <t>Großlindwurmfeuer</t>
+    <t>Dauer</t>
+  </si>
+  <si>
+    <t>Körperzone</t>
+  </si>
+  <si>
+    <t>Auslösewahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>Keine</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit durch Waffe</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Ladungen</t>
+  </si>
+  <si>
+    <t>Maxschaden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,41 +416,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358719AC-E6BD-4CA8-BE44-195CBDBDE443}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="11.89453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F28201-746F-463B-8DC1-15D82BAD0F38}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>25</v>
+      <c r="D2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -444,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -455,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -463,51 +508,28 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D5D939-E92D-40F8-938F-EEDB58C9964F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -515,7 +537,7 @@
     <col min="2" max="2" width="8.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -523,78 +545,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71FE013-3BB4-4C91-A0D7-26E6CC0D7A73}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
